--- a/biology/Zoologie/Harpalus_dilatatus/Harpalus_dilatatus.xlsx
+++ b/biology/Zoologie/Harpalus_dilatatus/Harpalus_dilatatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harpalus dilatatus est une espèce fossile d'insecte coléoptères du genre Harpalus, de la famille des Carabidae.
 </t>
@@ -511,16 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Harpalus dilatatus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[1]. 
-Fossile
-Cet holotype R86, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) fait partie de la collection Mieg[note 1] conservée au musée de Bale en Suisse, et vient de l'assise des marnes en plaquettes du Sannoisien moyen du gisement de Kleinkembs dans le pays de Bade et Bade-Wurtemberg, juste au sud de la frontière franco-allemande du Rhin.
-Étymologie
-L'épithète spécifique dilatatus signifie en latin « étendu ».
-The Taxonomicon : homonymie
-Selon The Taxonomicon en 2023, ce taxon n'est pas connu, mais il signale un homonyme plus ancien renommé dans la même famille des Carabidae :
-Harpalus dilatatus Dejean, 1829 renommé en Dicheirus dilatatus (Dejean, 1829)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Harpalus dilatatus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981). 
 </t>
         </is>
       </c>
@@ -546,19 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[3],[note 2] : 
-« Insecte de forme trapue, couleur brunâtre. Tête fortement engagée dans l'échancrure du prothorax; front court, tronqué à l'avant ; yeux non visibles. Prothorax de forme sub-rectangulaire, à peine rétrécie à l'avant ; angles postérieurs nets ; surface finement chagrinée. Élytres allongés, légèrement renflés vers le milieu, sommet arrondi; scutellum petit; épaules effacées; surface ornée de sillons finement ponctués; 8 stries et 1 striole scutellaire. Le parcours des stries est voisin de celui observé dans l'espèce précédente[note 3] ; on constate notamment que les 3° et 4° se réunissent près du sommet. l'extrémité même du sommet de l'aile est effacée et on ne peut y préciser le parcours des stries. Les élytres dépassent l'abdomen et baillent légèrement vers l'arrière. »[3].
-Dimensions
-La longueur des élytres est de 4 mm et la largeur des deux élytres réunies de 2,5 mm[3].
-Affinités
-Ce spécimen est très voisin de Harpalus offusus Förster, mais plus petit, et avec des élytres plus courts et plus larges.
-Harpalus abolitus C. &amp; L. Heyden est au contraire plus grand et les stries des élytres sont différentes.
+          <t>Fossile</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet holotype R86, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) fait partie de la collection Mieg[note 1] conservée au musée de Bale en Suisse, et vient de l'assise des marnes en plaquettes du Sannoisien moyen du gisement de Kleinkembs dans le pays de Bade et Bade-Wurtemberg, juste au sud de la frontière franco-allemande du Rhin.
 </t>
         </is>
       </c>
@@ -584,10 +590,201 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique dilatatus signifie en latin « étendu ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Harpalus_dilatatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpalus_dilatatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>The Taxonomicon : homonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Taxonomicon en 2023, ce taxon n'est pas connu, mais il signale un homonyme plus ancien renommé dans la même famille des Carabidae :
+Harpalus dilatatus Dejean, 1829 renommé en Dicheirus dilatatus (Dejean, 1829).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Harpalus_dilatatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpalus_dilatatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 2] : 
+« Insecte de forme trapue, couleur brunâtre. Tête fortement engagée dans l'échancrure du prothorax; front court, tronqué à l'avant ; yeux non visibles. Prothorax de forme sub-rectangulaire, à peine rétrécie à l'avant ; angles postérieurs nets ; surface finement chagrinée. Élytres allongés, légèrement renflés vers le milieu, sommet arrondi; scutellum petit; épaules effacées; surface ornée de sillons finement ponctués; 8 stries et 1 striole scutellaire. Le parcours des stries est voisin de celui observé dans l'espèce précédente[note 3] ; on constate notamment que les 3° et 4° se réunissent près du sommet. l'extrémité même du sommet de l'aile est effacée et on ne peut y préciser le parcours des stries. Les élytres dépassent l'abdomen et baillent légèrement vers l'arrière. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Harpalus_dilatatus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpalus_dilatatus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur des élytres est de 4 mm et la largeur des deux élytres réunies de 2,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Harpalus_dilatatus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpalus_dilatatus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce spécimen est très voisin de Harpalus offusus Förster, mais plus petit, et avec des élytres plus courts et plus larges.
+Harpalus abolitus C. &amp; L. Heyden est au contraire plus grand et les stries des élytres sont différentes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Harpalus_dilatatus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpalus_dilatatus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Carabidae sont peu nombreux et ne sont pas caractéristiques de la station. Ils vivaient dans le proche voisinage.
 </t>
